--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2881767.242349271</v>
+        <v>2985946.876800342</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>346.9886334722858</v>
       </c>
       <c r="C2" t="n">
-        <v>75.45713216103499</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.1974974666499</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>9.987743711174152</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.99649157474241</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>335.6759374499608</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.9083821604486</v>
+        <v>53.49499789162656</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.5442597171347</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>129.5398680316081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>113.9825002272791</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>169.22998702345</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.11937003877873</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>207.0793768444228</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>140.176011444184</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>186.6498836607803</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>114.5006452705931</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>178.2892930985862</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4863975071912</v>
+        <v>27.34574348918596</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695558</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>109.0404882242269</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>54.10799870228475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>41.1667312069662</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>49.33106662725162</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>73.57849775387122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3001,22 +3003,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>105.6356839950558</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.02356321678085</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>133.983849834638</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3430,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>71.05846343488115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3475,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>162.8435308896552</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>32.84316668127781</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>100.4429877184272</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>47.15100857094623</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>100.5140508960355</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>105.8460632289448</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943746</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927148</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
@@ -4334,46 +4336,46 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450751</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180637</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919557</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1952.040104645722</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.9977502341333</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4483,13 +4485,13 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764912</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915318</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1514.197050312641</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U4" t="n">
-        <v>1514.197050312641</v>
+        <v>1326.594608541189</v>
       </c>
       <c r="V4" t="n">
-        <v>1514.197050312641</v>
+        <v>1326.594608541189</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.779880275681</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X4" t="n">
-        <v>996.7903293776634</v>
+        <v>1027.088808492942</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.9977502341333</v>
+        <v>806.2962293494114</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218338</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794322</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450751</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450751</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189672</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.13895121386</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218338</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218338</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242372</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621287</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251681</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271508</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>530.5487792519424</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136264</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866149</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866149</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.407165890338</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
@@ -4899,28 +4901,28 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.322087337517</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="C10" t="n">
-        <v>527.322087337517</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672846</v>
+        <v>1722.330252232608</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242372</v>
+        <v>1722.330252232608</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242372</v>
+        <v>1722.330252232608</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036485</v>
+        <v>1467.645764026721</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995245</v>
+        <v>1178.22859398976</v>
       </c>
       <c r="X10" t="n">
-        <v>708.9705521677568</v>
+        <v>1178.22859398976</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.9705521677568</v>
+        <v>957.4360148462299</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,22 +5041,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177311</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.155899672379</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382112</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103043</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1987.891457765928</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1698.816231110126</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5361,19 +5363,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.869149758807</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.18466155292</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,10 +5548,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5589,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138411</v>
+        <v>3025.224490384403</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859342</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="D19" t="n">
-        <v>747.3584617859342</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>4260.842419256823</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>3971.76719260102</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>3717.082704395134</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>3427.665534358173</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>3427.665534358173</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>3206.872955214643</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797136</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192544</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,13 +5764,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3167.361685286662</v>
+        <v>3228.447361044447</v>
       </c>
       <c r="C22" t="n">
-        <v>2998.425502358755</v>
+        <v>3059.51117811654</v>
       </c>
       <c r="D22" t="n">
-        <v>2998.425502358755</v>
+        <v>2909.394538704204</v>
       </c>
       <c r="E22" t="n">
-        <v>2850.512408776362</v>
+        <v>2761.481445121811</v>
       </c>
       <c r="F22" t="n">
-        <v>2703.622461278451</v>
+        <v>2614.591497623901</v>
       </c>
       <c r="G22" t="n">
-        <v>2536.426361993331</v>
+        <v>2447.395398338781</v>
       </c>
       <c r="H22" t="n">
         <v>2419.773435218391</v>
@@ -5941,19 +5943,19 @@
         <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430192</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286662</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300425</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796739</v>
+        <v>2985.713220456422</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868832</v>
+        <v>2985.713220456422</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>2985.713220456422</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
         <v>2561.485266376193</v>
@@ -6172,25 +6174,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W25" t="n">
-        <v>3805.771724668526</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X25" t="n">
-        <v>3577.782173770509</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626978</v>
+        <v>3167.361685286662</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6208,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362677</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129205</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755757</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>4101.537227310363</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O27" t="n">
-        <v>4101.537227310363</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644064</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231728</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649335</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.17973854574</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.38715940221</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6491,22 +6493,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.872235754091</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>853.936052826184</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.313279727861</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.520700584331</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M33" t="n">
-        <v>3241.424143276705</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>3869.022106831312</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070599</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.402603663004</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C34" t="n">
-        <v>776.4664207350971</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227614</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4366877403683</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4366877403683</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>311.2405884552482</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7020,19 +7022,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372932</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C37" t="n">
-        <v>853.5941094450255</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326898</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7123,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2032.574130447511</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>1743.498903791709</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>1488.814415585822</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1199.397245548862</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346702</v>
+        <v>971.4076946508441</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203172</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433587</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E40" t="n">
         <v>382.4184417036842</v>
@@ -7363,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1876.003517158562</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3051.062654156519</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3051.062654156519</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711126</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950413</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7606,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.172021309389</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7640,28 +7642,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.91413360155</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>3324.292621228102</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>3951.890584782709</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>4503.800315021996</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.7126101431586</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>10.32607348286547</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>146.0084629450601</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>31.93476969131453</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>31.93331737597606</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.11615722870204</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.80831533903267</v>
+        <v>112.9489693570379</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>37.39347442234222</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>232.4149996343062</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>75.03697526434114</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24889,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>112.9489693570389</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.310863011585866</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>75.37549921168802</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>54.56191943763307</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>113.5907959652914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.28295407562294</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>186.0089474405555</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>61.40075786968302</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846405</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846407</v>
-      </c>
       <c r="E2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365052</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="H2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="J2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365053</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365058</v>
@@ -26353,7 +26355,7 @@
         <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818189</v>
+        <v>92183.89891818183</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818183</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818186</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830977.0808225261</v>
+        <v>-830977.0808225267</v>
       </c>
       <c r="C6" t="n">
-        <v>497767.6649050657</v>
+        <v>497767.6649050652</v>
       </c>
       <c r="D6" t="n">
-        <v>497767.6649050656</v>
+        <v>497767.6649050659</v>
       </c>
       <c r="E6" t="n">
-        <v>246542.7539584123</v>
+        <v>246542.7539584124</v>
       </c>
       <c r="F6" t="n">
-        <v>571955.2157657677</v>
+        <v>571955.2157657682</v>
       </c>
       <c r="G6" t="n">
-        <v>571955.2157657683</v>
+        <v>571955.215765768</v>
       </c>
       <c r="H6" t="n">
-        <v>571955.2157657681</v>
+        <v>571955.2157657682</v>
       </c>
       <c r="I6" t="n">
-        <v>571955.2157657683</v>
+        <v>571955.2157657682</v>
       </c>
       <c r="J6" t="n">
-        <v>354424.0133684904</v>
+        <v>354424.0133684906</v>
       </c>
       <c r="K6" t="n">
-        <v>571955.2157657684</v>
+        <v>571955.215765768</v>
       </c>
       <c r="L6" t="n">
-        <v>571955.2157657683</v>
+        <v>571955.2157657678</v>
       </c>
       <c r="M6" t="n">
-        <v>486900.1878302563</v>
+        <v>486900.1878302561</v>
       </c>
       <c r="N6" t="n">
         <v>571955.2157657683</v>
@@ -26561,7 +26563,7 @@
         <v>571955.2157657683</v>
       </c>
       <c r="P6" t="n">
-        <v>571955.2157657681</v>
+        <v>571955.2157657682</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>35.74520819119482</v>
       </c>
       <c r="C2" t="n">
-        <v>289.8157596099726</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3514518095193182</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>215.721911677863</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.7373500887381</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>19.00710417072219</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.67627119164624</v>
+        <v>165.0896554604682</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.1895819463459</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>240.1912326468609</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>75.78652510416282</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>56.47966836558712</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28813,10 +28815,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28858,16 +28860,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29521,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,10 +31123,10 @@
         <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
@@ -31133,34 +31135,34 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.9375967297389</v>
@@ -31212,31 +31214,31 @@
         <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138809</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>204.3779992811859</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.5427724581384</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31996,34 +31998,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>558.3177848342789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>604.2458225991924</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>493.6049778318539</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>346.7710205055867</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,10 +33271,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33740,22 +33742,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>301.9817606876396</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33974,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,13 +34216,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>476.0648089385462</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704897</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
         <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.757372170198</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340067</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>77.54037261451919</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.5609983721169</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9760727509455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462698</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>472.904110515859</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>359.6305704175236</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37388,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,16 +37624,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>337.510429158672</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561594</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2985946.876800342</v>
+        <v>2981934.26678635</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>346.9886334722858</v>
+        <v>288.1408797919103</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247588</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>32.14358419018485</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>9.987743711174152</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>335.6759374499608</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>81.02180158425375</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>200.6939993756705</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.49499789162656</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="X8" t="n">
-        <v>129.5398680316081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380414</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>113.9825002272791</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634818</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>207.0793768444228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.6498836607803</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>178.2892930985862</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>27.34574348918596</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>109.0404882242269</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>41.1667312069662</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>105.6356839950558</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.02356321678085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>162.8435308896552</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>100.4429877184272</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>47.15100857094623</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>74.20064764874441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.546535481797</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.584018541385</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>874.3183199346347</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645722</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.040104645722</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601583</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927764</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064387</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986295</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>810.1619238931568</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>641.2257409652499</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>491.1091015529141</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>343.196007970521</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>196.3060604726107</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.594608541189</v>
+        <v>1548.361223971665</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.594608541189</v>
+        <v>1548.361223971665</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.177438504229</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X4" t="n">
-        <v>1027.088808492942</v>
+        <v>1030.954503036687</v>
       </c>
       <c r="Y4" t="n">
-        <v>806.2962293494114</v>
+        <v>810.1619238931568</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1517.887535471215</v>
+        <v>1642.972675199008</v>
       </c>
       <c r="C5" t="n">
-        <v>1148.925018530804</v>
+        <v>1642.972675199008</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1284.706976592258</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>898.9187239940134</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>487.9328192044058</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.5487792519424</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C7" t="n">
-        <v>530.5487792519424</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1724.573336597917</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1469.88884839203</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>1180.471678355069</v>
       </c>
       <c r="X7" t="n">
-        <v>584.5841306576258</v>
+        <v>952.4821274570515</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.5487792519424</v>
+        <v>731.6895483135214</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
@@ -4810,46 +4810,46 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>1941.127034633561</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.127034633561</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>294.723245171594</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>144.6066057592583</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1722.330252232608</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1722.330252232608</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1722.330252232608</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1467.645764026721</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1178.22859398976</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X10" t="n">
-        <v>1178.22859398976</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.4360148462299</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5044,46 +5044,46 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>172.349019141113</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>506.2737913123336</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1987.891457765928</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1698.816231110126</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1444.131742904239</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1154.714572867279</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>926.7250219692613</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5287,22 +5287,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1327.139029956954</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5548,10 +5548,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3025.224490384403</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C19" t="n">
-        <v>2856.288307456496</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D19" t="n">
-        <v>2856.288307456496</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E19" t="n">
-        <v>2708.375213874103</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F19" t="n">
-        <v>2561.485266376193</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>4260.842419256823</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U19" t="n">
-        <v>3971.76719260102</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V19" t="n">
-        <v>3717.082704395134</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W19" t="n">
-        <v>3427.665534358173</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>3427.665534358173</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y19" t="n">
-        <v>3206.872955214643</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3228.447361044447</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>3059.51117811654</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2909.394538704204</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2761.481445121811</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2614.591497623901</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2447.395398338781</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6013,16 +6013,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2985.713220456422</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>2985.713220456422</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>2985.713220456422</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3388.154264430192</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>3167.361685286662</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7016,28 +7016,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O36" t="n">
-        <v>2356.04164637206</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P36" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2032.574130447511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1743.498903791709</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1488.814415585822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1199.397245548862</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>971.4076946508441</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7183,13 +7183,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>701.4712640439268</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>532.5350811160199</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1876.003517158562</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1621.319028952675</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1331.901858915714</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1103.912308017697</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>883.1197288741665</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.2946447138411</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3584617859342</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2418223735984</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1902.510931370362</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.580957587066223e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>10.32607348286547</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.93476969131453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>39.11615722870204</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>112.9489693570379</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>37.39347442234222</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>210.9709121168618</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>112.9489693570389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>54.56191943763307</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>185.741486670817</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.28295407562294</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>211.9838267404998</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.609736506</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365059</v>
-      </c>
       <c r="I2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365053</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551174</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818183</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="F4" t="n">
+        <v>12996.86414683039</v>
+      </c>
+      <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="G4" t="n">
-        <v>12996.86414683048</v>
-      </c>
       <c r="H4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26444,7 +26444,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830977.0808225267</v>
+        <v>-830977.0808225268</v>
       </c>
       <c r="C6" t="n">
-        <v>497767.6649050652</v>
+        <v>497767.6649050663</v>
       </c>
       <c r="D6" t="n">
-        <v>497767.6649050659</v>
+        <v>497767.6649050658</v>
       </c>
       <c r="E6" t="n">
-        <v>246542.7539584124</v>
+        <v>246195.3747040559</v>
       </c>
       <c r="F6" t="n">
-        <v>571955.2157657682</v>
+        <v>571607.8365114112</v>
       </c>
       <c r="G6" t="n">
-        <v>571955.215765768</v>
+        <v>571607.8365114112</v>
       </c>
       <c r="H6" t="n">
-        <v>571955.2157657682</v>
+        <v>571607.836511411</v>
       </c>
       <c r="I6" t="n">
-        <v>571955.2157657682</v>
+        <v>571607.836511411</v>
       </c>
       <c r="J6" t="n">
-        <v>354424.0133684906</v>
+        <v>354076.6341141337</v>
       </c>
       <c r="K6" t="n">
-        <v>571955.215765768</v>
+        <v>571607.8365114112</v>
       </c>
       <c r="L6" t="n">
-        <v>571955.2157657678</v>
+        <v>571607.8365114111</v>
       </c>
       <c r="M6" t="n">
-        <v>486900.1878302561</v>
+        <v>486552.8085758992</v>
       </c>
       <c r="N6" t="n">
-        <v>571955.2157657683</v>
+        <v>571607.8365114112</v>
       </c>
       <c r="O6" t="n">
-        <v>571955.2157657683</v>
+        <v>571607.8365114112</v>
       </c>
       <c r="P6" t="n">
-        <v>571955.2157657682</v>
+        <v>571607.8365114114</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.74520819119482</v>
+        <v>94.59296187157025</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.8822240688434</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>215.721911677863</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>19.00710417072219</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>329.8999240691997</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>85.51783882994241</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.0896554604682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>222.7020862222421</v>
       </c>
       <c r="X8" t="n">
-        <v>240.1912326468609</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276503</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>75.78652510416282</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-5.681602616057837e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28815,10 +28815,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28860,16 +28860,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>204.3779992811859</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32083,25 +32083,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>272.756932936465</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32311,10 +32311,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>512.9101366533177</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043726</v>
@@ -32548,10 +32548,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>277.2922978908101</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32785,22 +32785,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32809,7 +32809,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>346.7710205055867</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>338.1309585028985</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33736,13 +33736,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33754,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q36" t="n">
-        <v>301.9817606876396</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,28 +34210,28 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,10 +34447,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>77.54037261451919</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>134.2025531565909</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>370.3138922088733</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>134.6960534463657</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>206.7892464195652</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>206.7892464195652</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37384,13 +37384,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37402,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q36" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2981934.26678635</v>
+        <v>2983694.797089134</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288.1408797919103</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>66.76195975981727</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>33.36459702978421</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>32.14358419018485</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>81.02180158425375</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -952,7 +952,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.5534567971635</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>80.50796942908572</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>200.6939993756705</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>277.3605237366022</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>126.5388824951709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380414</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634818</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695591</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>51.36569740310371</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>51.35059460820201</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>100.58583229927</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881257</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>93.40444476188276</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176103</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
         <v>1617.939223126803</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796417</v>
+        <v>2004.539063190924</v>
       </c>
       <c r="Y2" t="n">
-        <v>2277.953133796417</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="3">
@@ -4388,37 +4388,37 @@
         <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
         <v>2446.503393068413</v>
@@ -4433,28 +4433,28 @@
         <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>810.1619238931568</v>
+        <v>2208.473197413834</v>
       </c>
       <c r="C4" t="n">
-        <v>641.2257409652499</v>
+        <v>2174.771584252436</v>
       </c>
       <c r="D4" t="n">
-        <v>491.1091015529141</v>
+        <v>2024.6549448401</v>
       </c>
       <c r="E4" t="n">
-        <v>343.196007970521</v>
+        <v>1876.741851257707</v>
       </c>
       <c r="F4" t="n">
-        <v>196.3060604726107</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971665</v>
+        <v>2946.672497492342</v>
       </c>
       <c r="V4" t="n">
-        <v>1548.361223971665</v>
+        <v>2946.672497492342</v>
       </c>
       <c r="W4" t="n">
-        <v>1258.944053934704</v>
+        <v>2657.255327455381</v>
       </c>
       <c r="X4" t="n">
-        <v>1030.954503036687</v>
+        <v>2429.265776557364</v>
       </c>
       <c r="Y4" t="n">
-        <v>810.1619238931568</v>
+        <v>2208.473197413834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.972675199008</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1642.972675199008</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1284.706976592258</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>898.9187239940134</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>487.9328192044058</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4600,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2327.726874697683</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.57251526313</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.0410834832817</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>147.8332976736841</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1724.573336597917</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1469.88884839203</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1180.471678355069</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>952.4821274570515</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>731.6895483135214</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1512.746163729872</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>768.6922125248775</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>357.7063077352699</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>346.6742616206705</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995009</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>294.723245171594</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592583</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218342</v>
@@ -4962,16 +4962,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971288</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732708</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297407</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,40 +5269,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5415,58 +5415,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
         <v>1746.193029533436</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,25 +5527,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098242</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819173</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695815</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871884</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F19" t="n">
-        <v>369.499740389278</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924459</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783594</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640064</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5843,7 +5843,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,46 +6445,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,16 +6539,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684978</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
         <v>1188.28814409505</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>664.287526121196</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>516.3744325388029</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>369.4844850408925</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L36" t="n">
         <v>590.9096564684977</v>
@@ -7074,25 +7074,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7165,22 +7165,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7192,13 +7192,13 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="41">
@@ -7402,46 +7402,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7478,34 +7478,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M42" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7730,16 +7730,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M45" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823058</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>114.1584408891651</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>114.1735436840668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>80.44045370237458</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823106</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="M2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551174</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.612356754776556e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26450,13 +26450,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683052</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683057</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830977.0808225268</v>
+        <v>-830977.0808225267</v>
       </c>
       <c r="C6" t="n">
-        <v>497767.6649050663</v>
+        <v>497767.6649050656</v>
       </c>
       <c r="D6" t="n">
         <v>497767.6649050658</v>
       </c>
       <c r="E6" t="n">
-        <v>246195.3747040559</v>
+        <v>246508.0160329769</v>
       </c>
       <c r="F6" t="n">
-        <v>571607.8365114112</v>
+        <v>571920.4778403322</v>
       </c>
       <c r="G6" t="n">
-        <v>571607.8365114112</v>
+        <v>571920.4778403324</v>
       </c>
       <c r="H6" t="n">
-        <v>571607.836511411</v>
+        <v>571920.4778403324</v>
       </c>
       <c r="I6" t="n">
-        <v>571607.836511411</v>
+        <v>571920.4778403324</v>
       </c>
       <c r="J6" t="n">
-        <v>354076.6341141337</v>
+        <v>354389.2754430547</v>
       </c>
       <c r="K6" t="n">
-        <v>571607.8365114112</v>
+        <v>571920.4778403324</v>
       </c>
       <c r="L6" t="n">
-        <v>571607.8365114111</v>
+        <v>571920.4778403325</v>
       </c>
       <c r="M6" t="n">
-        <v>486552.8085758992</v>
+        <v>486865.4499048205</v>
       </c>
       <c r="N6" t="n">
-        <v>571607.8365114112</v>
+        <v>571920.4778403324</v>
       </c>
       <c r="O6" t="n">
-        <v>571607.8365114112</v>
+        <v>571920.4778403324</v>
       </c>
       <c r="P6" t="n">
-        <v>571607.8365114114</v>
+        <v>571920.4778403324</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26798,19 +26798,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.59296187157025</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>302.9691409186518</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>133.8822240688436</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>133.8822240688434</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>329.8999240691997</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.17764388130553</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>85.51783882994251</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>85.51783882994241</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>17.24724065071825</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>222.7020862222421</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276503</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-5.681602616057837e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>400.5469039565762</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33268,16 +33268,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>321.1112257697157</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34216,19 +34216,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>322.8964653704916</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34453,16 +34453,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>551.7051287319857</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>257.9506595121318</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>187.1368183553855</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>188.9220579561613</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>409.1088842875412</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
